--- a/Code/Results/Cases/Case_7_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_36/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.986594045058155</v>
+        <v>1.086287118486183</v>
       </c>
       <c r="C2">
-        <v>0.7568205209355767</v>
+        <v>0.1666795009165725</v>
       </c>
       <c r="D2">
-        <v>0.008667029683586236</v>
+        <v>0.0503125215997926</v>
       </c>
       <c r="E2">
-        <v>1.442818331056486</v>
+        <v>1.389397457412628</v>
       </c>
       <c r="F2">
-        <v>1.481170448466528</v>
+        <v>0.5272620599791651</v>
       </c>
       <c r="G2">
-        <v>0.0007682712290611141</v>
+        <v>0.000793636372353699</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8431108347518546</v>
+        <v>1.155745620854162</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6006729330908414</v>
+        <v>0.6255993209243154</v>
       </c>
       <c r="O2">
-        <v>1.131026217924031</v>
+        <v>1.515226328229971</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.573567220888947</v>
+        <v>0.9424937735770982</v>
       </c>
       <c r="C3">
-        <v>0.6529083096789066</v>
+        <v>0.1483310215604092</v>
       </c>
       <c r="D3">
-        <v>0.01000352306961272</v>
+        <v>0.04557326088545466</v>
       </c>
       <c r="E3">
-        <v>1.231724491263904</v>
+        <v>1.194007065443429</v>
       </c>
       <c r="F3">
-        <v>1.314033483014839</v>
+        <v>0.4908262399428835</v>
       </c>
       <c r="G3">
-        <v>0.0007763150646047941</v>
+        <v>0.000797663694321357</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7262435924600652</v>
+        <v>1.004788457498933</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6442827969353857</v>
+        <v>0.6648395471395312</v>
       </c>
       <c r="O3">
-        <v>1.008337195897553</v>
+        <v>1.443074760536206</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.323794702823079</v>
+        <v>0.8545645634525272</v>
       </c>
       <c r="C4">
-        <v>0.5900276291635578</v>
+        <v>0.1370778588742638</v>
       </c>
       <c r="D4">
-        <v>0.01087501509699695</v>
+        <v>0.04264792598036848</v>
       </c>
       <c r="E4">
-        <v>1.105663247761157</v>
+        <v>1.076096286594819</v>
       </c>
       <c r="F4">
-        <v>1.215368189743714</v>
+        <v>0.4695603219768643</v>
       </c>
       <c r="G4">
-        <v>0.000781363611571365</v>
+        <v>0.0008002108474370884</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6555534487936541</v>
+        <v>0.9123927478216558</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6726788883297168</v>
+        <v>0.6899815593200875</v>
       </c>
       <c r="O4">
-        <v>0.9362291451779612</v>
+        <v>1.402340687360748</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.22282146330366</v>
+        <v>0.8188045212526447</v>
       </c>
       <c r="C5">
-        <v>0.5645939280125276</v>
+        <v>0.132492916686104</v>
       </c>
       <c r="D5">
-        <v>0.01124165928440934</v>
+        <v>0.04145186290629255</v>
       </c>
       <c r="E5">
-        <v>1.055039599754352</v>
+        <v>1.028486959679626</v>
       </c>
       <c r="F5">
-        <v>1.176043611121443</v>
+        <v>0.4611538458734543</v>
       </c>
       <c r="G5">
-        <v>0.0007834505289473913</v>
+        <v>0.0008012680367970611</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6269712526389668</v>
+        <v>0.8747947261164484</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6846337804311347</v>
+        <v>0.700483023554343</v>
       </c>
       <c r="O5">
-        <v>0.9075642473465422</v>
+        <v>1.386582005612041</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.206099769669493</v>
+        <v>0.8128704043356834</v>
       </c>
       <c r="C6">
-        <v>0.5603810744396753</v>
+        <v>0.1317315721857852</v>
       </c>
       <c r="D6">
-        <v>0.01130320063641888</v>
+        <v>0.04125301558073602</v>
       </c>
       <c r="E6">
-        <v>1.046674772443183</v>
+        <v>1.020605903492793</v>
       </c>
       <c r="F6">
-        <v>1.16956398924475</v>
+        <v>0.459773113013803</v>
       </c>
       <c r="G6">
-        <v>0.000783798903188069</v>
+        <v>0.0008014447562964492</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6222375707199177</v>
+        <v>0.8685543154328457</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6866413713245585</v>
+        <v>0.7022420212798097</v>
       </c>
       <c r="O6">
-        <v>0.9028454402742199</v>
+        <v>1.384014489623581</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.322429847890419</v>
+        <v>0.8540820242020857</v>
       </c>
       <c r="C7">
-        <v>0.5896839006286996</v>
+        <v>0.1370160245229641</v>
       </c>
       <c r="D7">
-        <v>0.01087991478807204</v>
+        <v>0.04263181162420437</v>
       </c>
       <c r="E7">
-        <v>1.104977674098464</v>
+        <v>1.07545252613042</v>
       </c>
       <c r="F7">
-        <v>1.214834413521956</v>
+        <v>0.4694459220299834</v>
       </c>
       <c r="G7">
-        <v>0.0007813916340150125</v>
+        <v>0.0008002250266973257</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.655167124468484</v>
+        <v>0.9118854941468442</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6728385944040873</v>
+        <v>0.690122159532195</v>
       </c>
       <c r="O7">
-        <v>0.9358397599767585</v>
+        <v>1.402124827822064</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.843292002243402</v>
+        <v>1.036620602092086</v>
       </c>
       <c r="C8">
-        <v>0.7207741331302202</v>
+        <v>0.1603487496770413</v>
       </c>
       <c r="D8">
-        <v>0.009116459172352265</v>
+        <v>0.04868156421363068</v>
       </c>
       <c r="E8">
-        <v>1.369202933815785</v>
+        <v>1.321550603949362</v>
       </c>
       <c r="F8">
-        <v>1.422648808102466</v>
+        <v>0.5144579789784984</v>
       </c>
       <c r="G8">
-        <v>0.0007710232842846755</v>
+        <v>0.0007950098731970784</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8025659052508303</v>
+        <v>1.10362261226183</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6153583257224469</v>
+        <v>0.638906982393993</v>
       </c>
       <c r="O8">
-        <v>1.087996437486154</v>
+        <v>1.489573131735995</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.902811106765967</v>
+        <v>1.398368735696209</v>
       </c>
       <c r="C9">
-        <v>0.9872711927529281</v>
+        <v>0.2063278077841488</v>
       </c>
       <c r="D9">
-        <v>0.006130944308033293</v>
+        <v>0.06042792821981635</v>
       </c>
       <c r="E9">
-        <v>1.923143428940762</v>
+        <v>1.824359546649177</v>
       </c>
       <c r="F9">
-        <v>1.867319292976788</v>
+        <v>0.6123982719627463</v>
       </c>
       <c r="G9">
-        <v>0.0007514568622454254</v>
+        <v>0.0007853484129969557</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.102314129474308</v>
+        <v>1.482911382917649</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.516704007190171</v>
+        <v>0.5471608867158377</v>
       </c>
       <c r="O9">
-        <v>1.4165858161481</v>
+        <v>1.692091934591986</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.716917432548996</v>
+        <v>1.667880540319942</v>
       </c>
       <c r="C10">
-        <v>1.192243425064646</v>
+        <v>0.2404339262681106</v>
       </c>
       <c r="D10">
-        <v>0.004342544072224896</v>
+        <v>0.06899506989018533</v>
       </c>
       <c r="E10">
-        <v>2.364574835204152</v>
+        <v>2.212109908889417</v>
       </c>
       <c r="F10">
-        <v>2.225879638319498</v>
+        <v>0.6916026359871807</v>
       </c>
       <c r="G10">
-        <v>0.0007373815454726107</v>
+        <v>0.0007785576633293951</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.332663149882393</v>
+        <v>1.765074451052527</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4547365021823424</v>
+        <v>0.4855963042290254</v>
       </c>
       <c r="O10">
-        <v>1.68386015546524</v>
+        <v>1.863912773097638</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.098363784325386</v>
+        <v>1.79165011129075</v>
       </c>
       <c r="C11">
-        <v>1.288414615408215</v>
+        <v>0.2560678752331</v>
       </c>
       <c r="D11">
-        <v>0.003650841285078421</v>
+        <v>0.0728809323394799</v>
       </c>
       <c r="E11">
-        <v>2.576425901278768</v>
+        <v>2.394026409087374</v>
       </c>
       <c r="F11">
-        <v>2.398390264832273</v>
+        <v>0.7295386899365326</v>
       </c>
       <c r="G11">
-        <v>0.000730998587134624</v>
+        <v>0.0007755260516367047</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.440623074829844</v>
+        <v>1.894566487605914</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4293504102385484</v>
+        <v>0.4589898004262709</v>
       </c>
       <c r="O11">
-        <v>1.813068580699934</v>
+        <v>1.948087239275992</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.244738804312021</v>
+        <v>1.838718101881767</v>
       </c>
       <c r="C12">
-        <v>1.325347432700823</v>
+        <v>0.2620095540327156</v>
       </c>
       <c r="D12">
-        <v>0.003410074346575698</v>
+        <v>0.07435094302059042</v>
       </c>
       <c r="E12">
-        <v>2.658607571358303</v>
+        <v>2.463854859325508</v>
       </c>
       <c r="F12">
-        <v>2.465315413623784</v>
+        <v>0.7442083736106326</v>
       </c>
       <c r="G12">
-        <v>0.0007285798846796272</v>
+        <v>0.0007743855021963486</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.482058276430081</v>
+        <v>1.943798532922187</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4201931477054757</v>
+        <v>0.4491281450785838</v>
       </c>
       <c r="O12">
-        <v>1.863294250572309</v>
+        <v>1.980919320842361</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.213122596112953</v>
+        <v>1.828571780452336</v>
       </c>
       <c r="C13">
-        <v>1.317368714726683</v>
+        <v>0.2607288791144668</v>
       </c>
       <c r="D13">
-        <v>0.00346091964435935</v>
+        <v>0.07403441319684845</v>
       </c>
       <c r="E13">
-        <v>2.640814452417928</v>
+        <v>2.448771698281263</v>
       </c>
       <c r="F13">
-        <v>2.450826367323344</v>
+        <v>0.7410349594530459</v>
       </c>
       <c r="G13">
-        <v>0.0007291009473537949</v>
+        <v>0.0007746308221568145</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.473108140750796</v>
+        <v>1.933186242044883</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4221441143478231</v>
+        <v>0.4512423179562437</v>
       </c>
       <c r="O13">
-        <v>1.852415984297792</v>
+        <v>1.973804212999823</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.110365365726864</v>
+        <v>1.795518242146414</v>
       </c>
       <c r="C14">
-        <v>1.291442184211917</v>
+        <v>0.2565562443669762</v>
       </c>
       <c r="D14">
-        <v>0.003630585275888443</v>
+        <v>0.07300189975692462</v>
       </c>
       <c r="E14">
-        <v>2.583145393489048</v>
+        <v>2.399751485202103</v>
       </c>
       <c r="F14">
-        <v>2.403862620120677</v>
+        <v>0.7307392961730841</v>
       </c>
       <c r="G14">
-        <v>0.0007307996599814626</v>
+        <v>0.0007754320734537488</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.444020273793114</v>
+        <v>1.898612703850318</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4285875654398126</v>
+        <v>0.4581741194073734</v>
       </c>
       <c r="O14">
-        <v>1.817173403312708</v>
+        <v>1.950768612830956</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.047685716980141</v>
+        <v>1.775298909412186</v>
       </c>
       <c r="C15">
-        <v>1.275631556937299</v>
+        <v>0.2540033147028566</v>
       </c>
       <c r="D15">
-        <v>0.003737388693854982</v>
+        <v>0.07236926737802918</v>
       </c>
       <c r="E15">
-        <v>2.548088750962123</v>
+        <v>2.369852326900258</v>
       </c>
       <c r="F15">
-        <v>2.375312281704112</v>
+        <v>0.7244734518605753</v>
       </c>
       <c r="G15">
-        <v>0.0007318398136761927</v>
+        <v>0.0007759238084879832</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.426278306767529</v>
+        <v>1.877462004744842</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.4325954556492064</v>
+        <v>0.4624482576972408</v>
       </c>
       <c r="O15">
-        <v>1.795761795624742</v>
+        <v>1.936786171456788</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.6922396720081</v>
+        <v>1.659818003572184</v>
       </c>
       <c r="C16">
-        <v>1.186024984405378</v>
+        <v>0.2394149639284109</v>
       </c>
       <c r="D16">
-        <v>0.004390494208524665</v>
+        <v>0.06874090368901165</v>
       </c>
       <c r="E16">
-        <v>2.350982051678145</v>
+        <v>2.200344513844257</v>
       </c>
       <c r="F16">
-        <v>2.214815035795326</v>
+        <v>0.6891642819435049</v>
       </c>
       <c r="G16">
-        <v>0.0007377987225785088</v>
+        <v>0.0007787568759271237</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.325679474820049</v>
+        <v>1.756637426212507</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.4564562681021158</v>
+        <v>0.4873643000714298</v>
       </c>
       <c r="O16">
-        <v>1.67558590995921</v>
+        <v>1.858540465777764</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.477249204375312</v>
+        <v>1.589294518435253</v>
       </c>
       <c r="C17">
-        <v>1.131866005683804</v>
+        <v>0.2304988785423916</v>
       </c>
       <c r="D17">
-        <v>0.004824716406772289</v>
+        <v>0.06651221298121612</v>
       </c>
       <c r="E17">
-        <v>2.233132564422064</v>
+        <v>2.097870764847315</v>
       </c>
       <c r="F17">
-        <v>2.118926211359636</v>
+        <v>0.6680118850427021</v>
       </c>
       <c r="G17">
-        <v>0.0007414564775779953</v>
+        <v>0.0007805090497492111</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.264841970686305</v>
+        <v>1.682828585657546</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.4718469901869042</v>
+        <v>0.5030164350290807</v>
       </c>
       <c r="O17">
-        <v>1.603947264746651</v>
+        <v>1.812142275982467</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.354614807577605</v>
+        <v>1.548839105719452</v>
       </c>
       <c r="C18">
-        <v>1.100984337277453</v>
+        <v>0.225381486821604</v>
       </c>
       <c r="D18">
-        <v>0.005085679555962841</v>
+        <v>0.06522924852028211</v>
       </c>
       <c r="E18">
-        <v>2.16636190568228</v>
+        <v>2.039441064884613</v>
       </c>
       <c r="F18">
-        <v>2.064641246571156</v>
+        <v>0.6560229922470739</v>
       </c>
       <c r="G18">
-        <v>0.0007435625107783032</v>
+        <v>0.0007815223224566416</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.230141841938661</v>
+        <v>1.640480327741557</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.4809595559980337</v>
+        <v>0.5121500578503357</v>
       </c>
       <c r="O18">
-        <v>1.563446398466326</v>
+        <v>1.786015147880164</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.313259253076751</v>
+        <v>1.535159212761585</v>
       </c>
       <c r="C19">
-        <v>1.090571962527605</v>
+        <v>0.2236505742343127</v>
       </c>
       <c r="D19">
-        <v>0.005175863905769518</v>
+        <v>0.06479466872160344</v>
       </c>
       <c r="E19">
-        <v>2.143918420931882</v>
+        <v>2.019741293795548</v>
       </c>
       <c r="F19">
-        <v>2.04640343926377</v>
+        <v>0.6519933558148949</v>
       </c>
       <c r="G19">
-        <v>0.0007442760778819604</v>
+        <v>0.0007818663621381322</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.218440432600815</v>
+        <v>1.626158951353204</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.4840881383985831</v>
+        <v>0.5152646718740315</v>
       </c>
       <c r="O19">
-        <v>1.549848790104321</v>
+        <v>1.777262433014272</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.500027253577457</v>
+        <v>1.596790486583672</v>
       </c>
       <c r="C20">
-        <v>1.137602838401506</v>
+        <v>0.2314468525205484</v>
       </c>
       <c r="D20">
-        <v>0.004777308598584717</v>
+        <v>0.06674957166259077</v>
       </c>
       <c r="E20">
-        <v>2.245570527012006</v>
+        <v>2.108725437103075</v>
       </c>
       <c r="F20">
-        <v>2.129042268769837</v>
+        <v>0.670245023570601</v>
       </c>
       <c r="G20">
-        <v>0.0007410669067821063</v>
+        <v>0.0007803219675278727</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.271287356481977</v>
+        <v>1.69067460424202</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.4701813338347733</v>
+        <v>0.5013366014343326</v>
       </c>
       <c r="O20">
-        <v>1.611499132541311</v>
+        <v>1.817022854240207</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.140492353393256</v>
+        <v>1.805221198588271</v>
       </c>
       <c r="C21">
-        <v>1.29904262969302</v>
+        <v>0.2577812293550892</v>
       </c>
       <c r="D21">
-        <v>0.003580142846196566</v>
+        <v>0.07330521288588443</v>
       </c>
       <c r="E21">
-        <v>2.600027711756667</v>
+        <v>2.414123127958206</v>
       </c>
       <c r="F21">
-        <v>2.41761142899216</v>
+        <v>0.7337548744380342</v>
       </c>
       <c r="G21">
-        <v>0.0007303007904429674</v>
+        <v>0.0007751965310836207</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.452548218503097</v>
+        <v>1.908762184743694</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.4266821293204615</v>
+        <v>0.4561321787606325</v>
       </c>
       <c r="O21">
-        <v>1.827488022761898</v>
+        <v>1.957507972485786</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.5705182778741</v>
+        <v>1.94262022605065</v>
       </c>
       <c r="C22">
-        <v>1.407610449187871</v>
+        <v>0.2751196283298043</v>
       </c>
       <c r="D22">
-        <v>0.002923417669759232</v>
+        <v>0.07758115117661646</v>
       </c>
       <c r="E22">
-        <v>2.843331819890622</v>
+        <v>2.619282328032952</v>
       </c>
       <c r="F22">
-        <v>2.615676210975067</v>
+        <v>0.7770509420066105</v>
       </c>
       <c r="G22">
-        <v>0.0007232524070340659</v>
+        <v>0.0007718897829704203</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.574294509905314</v>
+        <v>2.052456559266574</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4009415824246005</v>
+        <v>0.4278403368451498</v>
       </c>
       <c r="O22">
-        <v>1.976330466446214</v>
+        <v>2.054950928798178</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.339832715486352</v>
+        <v>1.869168892071542</v>
       </c>
       <c r="C23">
-        <v>1.349350390926645</v>
+        <v>0.2658525779129519</v>
       </c>
       <c r="D23">
-        <v>0.003260996189225374</v>
+        <v>0.07529973065074813</v>
       </c>
       <c r="E23">
-        <v>2.712266694802636</v>
+        <v>2.509222740254046</v>
       </c>
       <c r="F23">
-        <v>2.509005676096052</v>
+        <v>0.7537686568738735</v>
       </c>
       <c r="G23">
-        <v>0.0007270170686450413</v>
+        <v>0.0007736510117818088</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.508979353314174</v>
+        <v>1.975646078118103</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4144138932028341</v>
+        <v>0.4428212985643616</v>
       </c>
       <c r="O23">
-        <v>1.896111756961815</v>
+        <v>2.002395936887524</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.489726311479046</v>
+        <v>1.593401283006017</v>
       </c>
       <c r="C24">
-        <v>1.135008428748819</v>
+        <v>0.2310182470680502</v>
       </c>
       <c r="D24">
-        <v>0.004798706664931096</v>
+        <v>0.06664226698622144</v>
       </c>
       <c r="E24">
-        <v>2.239944290413646</v>
+        <v>2.103816543561237</v>
       </c>
       <c r="F24">
-        <v>2.124466192211557</v>
+        <v>0.669234888447491</v>
       </c>
       <c r="G24">
-        <v>0.0007412430216849897</v>
+        <v>0.0007804065289024955</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.268372544458671</v>
+        <v>1.687127155609375</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.4709335579258891</v>
+        <v>0.5020956346267806</v>
       </c>
       <c r="O24">
-        <v>1.608082813748368</v>
+        <v>1.814814645389873</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.610921566554623</v>
+        <v>1.299960542379864</v>
       </c>
       <c r="C25">
-        <v>0.9138432040595035</v>
+        <v>0.1938469138983265</v>
       </c>
       <c r="D25">
-        <v>0.006877270985277129</v>
+        <v>0.05726193136882785</v>
       </c>
       <c r="E25">
-        <v>1.768278756270433</v>
+        <v>1.685590873949991</v>
       </c>
       <c r="F25">
-        <v>1.742172432317034</v>
+        <v>0.5847343975629826</v>
       </c>
       <c r="G25">
-        <v>0.0007566839278700332</v>
+        <v>0.0007879052190755108</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.01973731462779</v>
+        <v>1.379804884225734</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5417030237126568</v>
+        <v>0.5709969227974847</v>
       </c>
       <c r="O25">
-        <v>1.323753591385568</v>
+        <v>1.633578868318807</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_36/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.086287118486183</v>
+        <v>0.9371240664111156</v>
       </c>
       <c r="C2">
-        <v>0.1666795009165725</v>
+        <v>0.164399950270365</v>
       </c>
       <c r="D2">
-        <v>0.0503125215997926</v>
+        <v>0.07126453302144142</v>
       </c>
       <c r="E2">
-        <v>1.389397457412628</v>
+        <v>1.331896857910266</v>
       </c>
       <c r="F2">
-        <v>0.5272620599791651</v>
+        <v>0.3668441463183285</v>
       </c>
       <c r="G2">
-        <v>0.000793636372353699</v>
+        <v>0.2609443981173101</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.008793150028979901</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2354211717637469</v>
       </c>
       <c r="K2">
-        <v>1.155745620854162</v>
+        <v>0.1869701303919236</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.040630250512066</v>
       </c>
       <c r="N2">
-        <v>0.6255993209243154</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.515226328229971</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.6160908670567515</v>
+      </c>
+      <c r="Q2">
+        <v>0.9954927152005126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9424937735770982</v>
+        <v>0.8178900930140003</v>
       </c>
       <c r="C3">
-        <v>0.1483310215604092</v>
+        <v>0.1461178927103646</v>
       </c>
       <c r="D3">
-        <v>0.04557326088545466</v>
+        <v>0.06293955222427883</v>
       </c>
       <c r="E3">
-        <v>1.194007065443429</v>
+        <v>1.162517102905383</v>
       </c>
       <c r="F3">
-        <v>0.4908262399428835</v>
+        <v>0.343662850863538</v>
       </c>
       <c r="G3">
-        <v>0.000797663694321357</v>
+        <v>0.2464473901565682</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.006294150545571919</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2326542723016018</v>
       </c>
       <c r="K3">
-        <v>1.004788457498933</v>
+        <v>0.1876140576481724</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.9107147620840408</v>
       </c>
       <c r="N3">
-        <v>0.6648395471395312</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.443074760536206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.6376193130337668</v>
+      </c>
+      <c r="Q3">
+        <v>0.9586976934446483</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8545645634525272</v>
+        <v>0.7445836846602845</v>
       </c>
       <c r="C4">
-        <v>0.1370778588742638</v>
+        <v>0.1348775924044929</v>
       </c>
       <c r="D4">
-        <v>0.04264792598036848</v>
+        <v>0.05780810739519637</v>
       </c>
       <c r="E4">
-        <v>1.076096286594819</v>
+        <v>1.058630815777207</v>
       </c>
       <c r="F4">
-        <v>0.4695603219768643</v>
+        <v>0.3299392973449855</v>
       </c>
       <c r="G4">
-        <v>0.0008002108474370884</v>
+        <v>0.2379708400726344</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.004921524485813955</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2312363848981818</v>
       </c>
       <c r="K4">
-        <v>0.9123927478216558</v>
+        <v>0.1883355355806025</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.8308225912577143</v>
       </c>
       <c r="N4">
-        <v>0.6899815593200875</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.402340687360748</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.6514386870804074</v>
+      </c>
+      <c r="Q4">
+        <v>0.9375871235897506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8188045212526447</v>
+        <v>0.7146814914216861</v>
       </c>
       <c r="C5">
-        <v>0.132492916686104</v>
+        <v>0.1302925015914695</v>
       </c>
       <c r="D5">
-        <v>0.04145186290629255</v>
+        <v>0.05571173923765826</v>
       </c>
       <c r="E5">
-        <v>1.028486959679626</v>
+        <v>1.016310327858577</v>
       </c>
       <c r="F5">
-        <v>0.4611538458734543</v>
+        <v>0.3244681528130968</v>
       </c>
       <c r="G5">
-        <v>0.0008012680367970611</v>
+        <v>0.2346172720939705</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.004399750024439153</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2307265564175793</v>
       </c>
       <c r="K5">
-        <v>0.8747947261164484</v>
+        <v>0.188708284107495</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.7982293122827713</v>
       </c>
       <c r="N5">
-        <v>0.700483023554343</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.386582005612041</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.6572174490173772</v>
+      </c>
+      <c r="Q5">
+        <v>0.9293384340059703</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8128704043356834</v>
+        <v>0.7097143479367958</v>
       </c>
       <c r="C6">
-        <v>0.1317315721857852</v>
+        <v>0.129530852040503</v>
       </c>
       <c r="D6">
-        <v>0.04125301558073602</v>
+        <v>0.0553633135749152</v>
       </c>
       <c r="E6">
-        <v>1.020605903492793</v>
+        <v>1.009283475980951</v>
       </c>
       <c r="F6">
-        <v>0.459773113013803</v>
+        <v>0.3235668040860062</v>
       </c>
       <c r="G6">
-        <v>0.0008014447562964492</v>
+        <v>0.2340663228185491</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.004315290989119647</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2306459285722369</v>
       </c>
       <c r="K6">
-        <v>0.8685543154328457</v>
+        <v>0.1887748413689216</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.792814859753463</v>
       </c>
       <c r="N6">
-        <v>0.7022420212798097</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.384014489623581</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.6581857931099329</v>
+      </c>
+      <c r="Q6">
+        <v>0.9279895998556924</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8540820242020857</v>
+        <v>0.7441805380388757</v>
       </c>
       <c r="C7">
-        <v>0.1370160245229641</v>
+        <v>0.1348157758135216</v>
       </c>
       <c r="D7">
-        <v>0.04263181162420437</v>
+        <v>0.05777985669032404</v>
       </c>
       <c r="E7">
-        <v>1.07545252613042</v>
+        <v>1.058060028914625</v>
       </c>
       <c r="F7">
-        <v>0.4694459220299834</v>
+        <v>0.3298650292919163</v>
       </c>
       <c r="G7">
-        <v>0.0008002250266973257</v>
+        <v>0.2379252128492055</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.004914339504577092</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2312292374297442</v>
       </c>
       <c r="K7">
-        <v>0.9118854941468442</v>
+        <v>0.1883402480017331</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.8303831820168739</v>
       </c>
       <c r="N7">
-        <v>0.690122159532195</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.402124827822064</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.6515160301883363</v>
+      </c>
+      <c r="Q7">
+        <v>0.9374744693722761</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.036620602092086</v>
+        <v>0.8960290194412721</v>
       </c>
       <c r="C8">
-        <v>0.1603487496770413</v>
+        <v>0.1580989202217182</v>
       </c>
       <c r="D8">
-        <v>0.04868156421363068</v>
+        <v>0.06839803760995977</v>
       </c>
       <c r="E8">
-        <v>1.321550603949362</v>
+        <v>1.273462168057023</v>
       </c>
       <c r="F8">
-        <v>0.5144579789784984</v>
+        <v>0.358741177766305</v>
       </c>
       <c r="G8">
-        <v>0.0007950098731970784</v>
+        <v>0.2558539446250236</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.007896024462288431</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2344071715361693</v>
       </c>
       <c r="K8">
-        <v>1.10362261226183</v>
+        <v>0.1871224735108932</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.9958575771491951</v>
       </c>
       <c r="N8">
-        <v>0.638906982393993</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.489573131735995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.6233868252430383</v>
+      </c>
+      <c r="Q8">
+        <v>0.9824868574358874</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.398368735696209</v>
+        <v>1.193295218457251</v>
       </c>
       <c r="C9">
-        <v>0.2063278077841488</v>
+        <v>0.2036782229357215</v>
       </c>
       <c r="D9">
-        <v>0.06042792821981635</v>
+        <v>0.0890762228152937</v>
       </c>
       <c r="E9">
-        <v>1.824359546649177</v>
+        <v>1.697469026794906</v>
       </c>
       <c r="F9">
-        <v>0.6123982719627463</v>
+        <v>0.4197391117037341</v>
       </c>
       <c r="G9">
-        <v>0.0007853484129969557</v>
+        <v>0.2946696416534778</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.01517115689011062</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2429955684320717</v>
       </c>
       <c r="K9">
-        <v>1.482911382917649</v>
+        <v>0.1874748006733817</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.319652097746797</v>
       </c>
       <c r="N9">
-        <v>0.5471608867158377</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.692091934591986</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.5731714375359189</v>
+      </c>
+      <c r="Q9">
+        <v>1.083389321480439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.667880540319942</v>
+        <v>1.407831113289689</v>
       </c>
       <c r="C10">
-        <v>0.2404339262681106</v>
+        <v>0.2351901012142008</v>
       </c>
       <c r="D10">
-        <v>0.06899506989018533</v>
+        <v>0.1051802340017076</v>
       </c>
       <c r="E10">
-        <v>2.212109908889417</v>
+        <v>1.910070284561243</v>
       </c>
       <c r="F10">
-        <v>0.6916026359871807</v>
+        <v>0.4624620885227202</v>
       </c>
       <c r="G10">
-        <v>0.0007785576633293951</v>
+        <v>0.3207917100016715</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.02100852491015903</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2484921521832462</v>
       </c>
       <c r="K10">
-        <v>1.765074451052527</v>
+        <v>0.1874698701739952</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.551140776401439</v>
       </c>
       <c r="N10">
-        <v>0.4855963042290254</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.863912773097638</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.5417006127449326</v>
+      </c>
+      <c r="Q10">
+        <v>1.150699004578883</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.79165011129075</v>
+        <v>1.470986767641364</v>
       </c>
       <c r="C11">
-        <v>0.2560678752331</v>
+        <v>0.2324630547025208</v>
       </c>
       <c r="D11">
-        <v>0.0728809323394799</v>
+        <v>0.1213572961596441</v>
       </c>
       <c r="E11">
-        <v>2.394026409087374</v>
+        <v>1.228650540294609</v>
       </c>
       <c r="F11">
-        <v>0.7295386899365326</v>
+        <v>0.4375299207076964</v>
       </c>
       <c r="G11">
-        <v>0.0007755260516367047</v>
+        <v>0.2904016814921349</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.03663088906601786</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2305021211386773</v>
       </c>
       <c r="K11">
-        <v>1.894566487605914</v>
+        <v>0.1696372173037233</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.600711477144529</v>
       </c>
       <c r="N11">
-        <v>0.4589898004262709</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1.948087239275992</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.5491090672039576</v>
+      </c>
+      <c r="Q11">
+        <v>1.048723677260341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.838718101881767</v>
+        <v>1.47867584279274</v>
       </c>
       <c r="C12">
-        <v>0.2620095540327156</v>
+        <v>0.2237874871943717</v>
       </c>
       <c r="D12">
-        <v>0.07435094302059042</v>
+        <v>0.1320959286732375</v>
       </c>
       <c r="E12">
-        <v>2.463854859325508</v>
+        <v>0.7396608027985394</v>
       </c>
       <c r="F12">
-        <v>0.7442083736106326</v>
+        <v>0.4075847219568658</v>
       </c>
       <c r="G12">
-        <v>0.0007743855021963486</v>
+        <v>0.2601729502162655</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.07286590329835008</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2143295055181724</v>
       </c>
       <c r="K12">
-        <v>1.943798532922187</v>
+        <v>0.1549691446937587</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.593449241968443</v>
       </c>
       <c r="N12">
-        <v>0.4491281450785838</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1.980919320842361</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.5646002343826524</v>
+      </c>
+      <c r="Q12">
+        <v>0.9508007799912122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.828571780452336</v>
+        <v>1.444112641559769</v>
       </c>
       <c r="C13">
-        <v>0.2607288791144668</v>
+        <v>0.2101256694634372</v>
       </c>
       <c r="D13">
-        <v>0.07403441319684845</v>
+        <v>0.1391454286814167</v>
       </c>
       <c r="E13">
-        <v>2.448771698281263</v>
+        <v>0.370294089823382</v>
       </c>
       <c r="F13">
-        <v>0.7410349594530459</v>
+        <v>0.3720240814055629</v>
       </c>
       <c r="G13">
-        <v>0.0007746308221568145</v>
+        <v>0.2283062169658621</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1263148919527879</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.198565773925921</v>
       </c>
       <c r="K13">
-        <v>1.933186242044883</v>
+        <v>0.1417889968284527</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.542180298982572</v>
       </c>
       <c r="N13">
-        <v>0.4512423179562437</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1.973804212999823</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.5863760312179025</v>
+      </c>
+      <c r="Q13">
+        <v>0.850189304553524</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.795518242146414</v>
+        <v>1.400974295119227</v>
       </c>
       <c r="C14">
-        <v>0.2565562443669762</v>
+        <v>0.1984443854045566</v>
       </c>
       <c r="D14">
-        <v>0.07300189975692462</v>
+        <v>0.1424001653070661</v>
       </c>
       <c r="E14">
-        <v>2.399751485202103</v>
+        <v>0.1840946333810933</v>
       </c>
       <c r="F14">
-        <v>0.7307392961730841</v>
+        <v>0.3448618550084461</v>
       </c>
       <c r="G14">
-        <v>0.0007754320734537488</v>
+        <v>0.2055954833047835</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1741996938850576</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1878324143258041</v>
       </c>
       <c r="K14">
-        <v>1.898612703850318</v>
+        <v>0.1333608254104242</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.486697427621891</v>
       </c>
       <c r="N14">
-        <v>0.4581741194073734</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>1.950768612830956</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.604464956049064</v>
+      </c>
+      <c r="Q14">
+        <v>0.7795033581088262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.775298909412186</v>
+        <v>1.381551947644226</v>
       </c>
       <c r="C15">
-        <v>0.2540033147028566</v>
+        <v>0.1945286879559376</v>
       </c>
       <c r="D15">
-        <v>0.07236926737802918</v>
+        <v>0.1423230270247444</v>
       </c>
       <c r="E15">
-        <v>2.369852326900258</v>
+        <v>0.1477805577008411</v>
       </c>
       <c r="F15">
-        <v>0.7244734518605753</v>
+        <v>0.3370737930556089</v>
       </c>
       <c r="G15">
-        <v>0.0007759238084879832</v>
+        <v>0.1996269209458816</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1862300400305941</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1852935218167673</v>
       </c>
       <c r="K15">
-        <v>1.877462004744842</v>
+        <v>0.1315786609571354</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.463920261552175</v>
       </c>
       <c r="N15">
-        <v>0.4624482576972408</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1.936786171456788</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.6097495781838589</v>
+      </c>
+      <c r="Q15">
+        <v>0.7615009365059251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.659818003572184</v>
+        <v>1.29702332960494</v>
       </c>
       <c r="C16">
-        <v>0.2394149639284109</v>
+        <v>0.1842201882066519</v>
       </c>
       <c r="D16">
-        <v>0.06874090368901165</v>
+        <v>0.1336438307972259</v>
       </c>
       <c r="E16">
-        <v>2.200344513844257</v>
+        <v>0.1450395186994093</v>
       </c>
       <c r="F16">
-        <v>0.6891642819435049</v>
+        <v>0.3261705708932396</v>
       </c>
       <c r="G16">
-        <v>0.0007787568759271237</v>
+        <v>0.1951331828637919</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1717288449823542</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1860929836892851</v>
       </c>
       <c r="K16">
-        <v>1.756637426212507</v>
+        <v>0.1340741869302366</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.37612705846368</v>
       </c>
       <c r="N16">
-        <v>0.4873643000714298</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1.858540465777764</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.6164510032777031</v>
+      </c>
+      <c r="Q16">
+        <v>0.7534777586596562</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.589294518435253</v>
+        <v>1.255100951098427</v>
       </c>
       <c r="C17">
-        <v>0.2304988785423916</v>
+        <v>0.1824194922735245</v>
       </c>
       <c r="D17">
-        <v>0.06651221298121612</v>
+        <v>0.1252879101586188</v>
       </c>
       <c r="E17">
-        <v>2.097870764847315</v>
+        <v>0.2283687965731147</v>
       </c>
       <c r="F17">
-        <v>0.6680118850427021</v>
+        <v>0.3322341945027816</v>
       </c>
       <c r="G17">
-        <v>0.0007805090497492111</v>
+        <v>0.2036703035445555</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1333030155096679</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1924282994019819</v>
       </c>
       <c r="K17">
-        <v>1.682828585657546</v>
+        <v>0.140494798400562</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.33813659057472</v>
       </c>
       <c r="N17">
-        <v>0.5030164350290807</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1.812142275982467</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.612288401030348</v>
+      </c>
+      <c r="Q17">
+        <v>0.7847446830543845</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.548839105719452</v>
+        <v>1.244920638694737</v>
       </c>
       <c r="C18">
-        <v>0.225381486821604</v>
+        <v>0.187912154431686</v>
       </c>
       <c r="D18">
-        <v>0.06522924852028211</v>
+        <v>0.1164316595148733</v>
       </c>
       <c r="E18">
-        <v>2.039441064884613</v>
+        <v>0.4581807026601936</v>
       </c>
       <c r="F18">
-        <v>0.6560229922470739</v>
+        <v>0.3537160028208604</v>
       </c>
       <c r="G18">
-        <v>0.0007815223224566416</v>
+        <v>0.2249101542971488</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.08109172137676524</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2043666584509296</v>
       </c>
       <c r="K18">
-        <v>1.640480327741557</v>
+        <v>0.1512219355939521</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.338652413002421</v>
       </c>
       <c r="N18">
-        <v>0.5121500578503357</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.786015147880164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.5993157580654298</v>
+      </c>
+      <c r="Q18">
+        <v>0.8547321539565758</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.535159212761585</v>
+        <v>1.261129598053941</v>
       </c>
       <c r="C19">
-        <v>0.2236505742343127</v>
+        <v>0.1992513622442544</v>
       </c>
       <c r="D19">
-        <v>0.06479466872160344</v>
+        <v>0.1080318646027791</v>
       </c>
       <c r="E19">
-        <v>2.019741293795548</v>
+        <v>0.8863453566941928</v>
       </c>
       <c r="F19">
-        <v>0.6519933558148949</v>
+        <v>0.3866279875115666</v>
       </c>
       <c r="G19">
-        <v>0.0007818663621381322</v>
+        <v>0.2559314260648122</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03810856867057311</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2202779853177645</v>
       </c>
       <c r="K19">
-        <v>1.626158951353204</v>
+        <v>0.1650862680275829</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.370523875157886</v>
       </c>
       <c r="N19">
-        <v>0.5152646718740315</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1.777262433014272</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.5815987773187885</v>
+      </c>
+      <c r="Q19">
+        <v>0.953832788094644</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.596790486583672</v>
+        <v>1.351330971837712</v>
       </c>
       <c r="C20">
-        <v>0.2314468525205484</v>
+        <v>0.2268358981169314</v>
       </c>
       <c r="D20">
-        <v>0.06674957166259077</v>
+        <v>0.1009930120007709</v>
       </c>
       <c r="E20">
-        <v>2.108725437103075</v>
+        <v>1.849952119245827</v>
       </c>
       <c r="F20">
-        <v>0.670245023570601</v>
+        <v>0.4508016715270173</v>
       </c>
       <c r="G20">
-        <v>0.0007803219675278727</v>
+        <v>0.3135321549861629</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.01935819860540411</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2468310918070955</v>
       </c>
       <c r="K20">
-        <v>1.69067460424202</v>
+        <v>0.1872436343556778</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.49009796782164</v>
       </c>
       <c r="N20">
-        <v>0.5013366014343326</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.817022854240207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.5497935068239492</v>
+      </c>
+      <c r="Q20">
+        <v>1.131721696749821</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.805221198588271</v>
+        <v>1.522174962488776</v>
       </c>
       <c r="C21">
-        <v>0.2577812293550892</v>
+        <v>0.2541084330247827</v>
       </c>
       <c r="D21">
-        <v>0.07330521288588443</v>
+        <v>0.1118245748628226</v>
       </c>
       <c r="E21">
-        <v>2.414123127958206</v>
+        <v>2.170021237927628</v>
       </c>
       <c r="F21">
-        <v>0.7337548744380342</v>
+        <v>0.4928061845737943</v>
       </c>
       <c r="G21">
-        <v>0.0007751965310836207</v>
+        <v>0.3423366996634201</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02516000459563594</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2553817290099971</v>
       </c>
       <c r="K21">
-        <v>1.908762184743694</v>
+        <v>0.191239850969545</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.677729940778875</v>
       </c>
       <c r="N21">
-        <v>0.4561321787606325</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1.957507972485786</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.5234661096994344</v>
+      </c>
+      <c r="Q21">
+        <v>1.211017944034268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.94262022605065</v>
+        <v>1.631977245707986</v>
       </c>
       <c r="C22">
-        <v>0.2751196283298043</v>
+        <v>0.2709472557238826</v>
       </c>
       <c r="D22">
-        <v>0.07758115117661646</v>
+        <v>0.1193944553279778</v>
       </c>
       <c r="E22">
-        <v>2.619282328032952</v>
+        <v>2.328575373035093</v>
       </c>
       <c r="F22">
-        <v>0.7770509420066105</v>
+        <v>0.5183267698045171</v>
       </c>
       <c r="G22">
-        <v>0.0007718897829704203</v>
+        <v>0.3592177273134496</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02891003585962348</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2600870316161945</v>
       </c>
       <c r="K22">
-        <v>2.052456559266574</v>
+        <v>0.1931706254128045</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.797255590550634</v>
       </c>
       <c r="N22">
-        <v>0.4278403368451498</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.054950928798178</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.5080174945240508</v>
+      </c>
+      <c r="Q22">
+        <v>1.256861382896176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.869168892071542</v>
+        <v>1.573357555501701</v>
       </c>
       <c r="C23">
-        <v>0.2658525779129519</v>
+        <v>0.2619574418420001</v>
       </c>
       <c r="D23">
-        <v>0.07529973065074813</v>
+        <v>0.1153546019514096</v>
       </c>
       <c r="E23">
-        <v>2.509222740254046</v>
+        <v>2.243880511798139</v>
       </c>
       <c r="F23">
-        <v>0.7537686568738735</v>
+        <v>0.5046362096038095</v>
       </c>
       <c r="G23">
-        <v>0.0007736510117818088</v>
+        <v>0.3501484867547475</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02688306196714096</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.257541929945063</v>
       </c>
       <c r="K23">
-        <v>1.975646078118103</v>
+        <v>0.1921005435244112</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.733446229853513</v>
       </c>
       <c r="N23">
-        <v>0.4428212985643616</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.002395936887524</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.5161986552374529</v>
+      </c>
+      <c r="Q23">
+        <v>1.232197462261524</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.593401283006017</v>
+        <v>1.351653456286556</v>
       </c>
       <c r="C24">
-        <v>0.2310182470680502</v>
+        <v>0.2279599515670157</v>
       </c>
       <c r="D24">
-        <v>0.06664226698622144</v>
+        <v>0.1000446206328292</v>
       </c>
       <c r="E24">
-        <v>2.103816543561237</v>
+        <v>1.924562616816942</v>
       </c>
       <c r="F24">
-        <v>0.669234888447491</v>
+        <v>0.4542601125628849</v>
       </c>
       <c r="G24">
-        <v>0.0007804065289024955</v>
+        <v>0.3170566877816867</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.01974163851315702</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2486225269026789</v>
       </c>
       <c r="K24">
-        <v>1.687127155609375</v>
+        <v>0.1888905676873662</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.492085235490634</v>
       </c>
       <c r="N24">
-        <v>0.5020956346267806</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.814814645389873</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.5485581108040485</v>
+      </c>
+      <c r="Q24">
+        <v>1.142946122129757</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.299960542379864</v>
+        <v>1.112891680606538</v>
       </c>
       <c r="C25">
-        <v>0.1938469138983265</v>
+        <v>0.1913499873823667</v>
       </c>
       <c r="D25">
-        <v>0.05726193136882785</v>
+        <v>0.08349550858036991</v>
       </c>
       <c r="E25">
-        <v>1.685590873949991</v>
+        <v>1.582487328682063</v>
       </c>
       <c r="F25">
-        <v>0.5847343975629826</v>
+        <v>0.4027216983163555</v>
       </c>
       <c r="G25">
-        <v>0.0007879052190755108</v>
+        <v>0.2837353293901543</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.01302923336431205</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2404013900421802</v>
       </c>
       <c r="K25">
-        <v>1.379804884225734</v>
+        <v>0.1870639192409591</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.232088745181557</v>
       </c>
       <c r="N25">
-        <v>0.5709969227974847</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.633578868318807</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.5862008210546392</v>
+      </c>
+      <c r="Q25">
+        <v>1.054612018605098</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_36/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9371240664111156</v>
+        <v>0.9072651769622837</v>
       </c>
       <c r="C2">
-        <v>0.164399950270365</v>
+        <v>0.1797819317089164</v>
       </c>
       <c r="D2">
-        <v>0.07126453302144142</v>
+        <v>0.07371577137111274</v>
       </c>
       <c r="E2">
-        <v>1.331896857910266</v>
+        <v>1.32997910960205</v>
       </c>
       <c r="F2">
-        <v>0.3668441463183285</v>
+        <v>0.3554903599150094</v>
       </c>
       <c r="G2">
-        <v>0.2609443981173101</v>
+        <v>0.2325498178613472</v>
       </c>
       <c r="H2">
-        <v>0.008793150028979901</v>
+        <v>0.008591741938765135</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2354211717637469</v>
+        <v>0.2706212893515101</v>
       </c>
       <c r="K2">
-        <v>0.1869701303919236</v>
+        <v>0.177154165111741</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1190303589457216</v>
       </c>
       <c r="M2">
-        <v>1.040630250512066</v>
+        <v>0.0315267268362831</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.039988947254074</v>
       </c>
       <c r="P2">
-        <v>0.6160908670567515</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.9954927152005126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.6230631123492323</v>
+      </c>
+      <c r="S2">
+        <v>0.9624785179594966</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8178900930140003</v>
+        <v>0.7961534514055018</v>
       </c>
       <c r="C3">
-        <v>0.1461178927103646</v>
+        <v>0.1565778989343016</v>
       </c>
       <c r="D3">
-        <v>0.06293955222427883</v>
+        <v>0.06476553182324807</v>
       </c>
       <c r="E3">
-        <v>1.162517102905383</v>
+        <v>1.161334298766846</v>
       </c>
       <c r="F3">
-        <v>0.343662850863538</v>
+        <v>0.3347369250018062</v>
       </c>
       <c r="G3">
-        <v>0.2464473901565682</v>
+        <v>0.2203293572605602</v>
       </c>
       <c r="H3">
-        <v>0.006294150545571919</v>
+        <v>0.006182451740563977</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2326542723016018</v>
+        <v>0.2672322688653637</v>
       </c>
       <c r="K3">
-        <v>0.1876140576481724</v>
+        <v>0.1789768353299159</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1237584066488608</v>
       </c>
       <c r="M3">
-        <v>0.9107147620840408</v>
+        <v>0.02920659491475064</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.9102646373374625</v>
       </c>
       <c r="P3">
-        <v>0.6376193130337668</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.9586976934446483</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.6410412565496166</v>
+      </c>
+      <c r="S3">
+        <v>0.9322983538074823</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7445836846602845</v>
+        <v>0.7276682612222487</v>
       </c>
       <c r="C4">
-        <v>0.1348775924044929</v>
+        <v>0.1424034137220787</v>
       </c>
       <c r="D4">
-        <v>0.05780810739519637</v>
+        <v>0.05926027023364355</v>
       </c>
       <c r="E4">
-        <v>1.058630815777207</v>
+        <v>1.057870573553927</v>
       </c>
       <c r="F4">
-        <v>0.3299392973449855</v>
+        <v>0.322408495488034</v>
       </c>
       <c r="G4">
-        <v>0.2379708400726344</v>
+        <v>0.2132301729104711</v>
       </c>
       <c r="H4">
-        <v>0.004921524485813955</v>
+        <v>0.004855432954373851</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2312363848981818</v>
+        <v>0.265289609097195</v>
       </c>
       <c r="K4">
-        <v>0.1883355355806025</v>
+        <v>0.1803408476787087</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1268481545844224</v>
       </c>
       <c r="M4">
-        <v>0.8308225912577143</v>
+        <v>0.02828574295444941</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.8304683464850484</v>
       </c>
       <c r="P4">
-        <v>0.6514386870804074</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.9375871235897506</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.6526803217385506</v>
+      </c>
+      <c r="S4">
+        <v>0.9149471237966225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7146814914216861</v>
+        <v>0.6996905501383992</v>
       </c>
       <c r="C5">
-        <v>0.1302925015914695</v>
+        <v>0.1366444952557799</v>
       </c>
       <c r="D5">
-        <v>0.05571173923765826</v>
+        <v>0.05701409803525337</v>
       </c>
       <c r="E5">
-        <v>1.016310327858577</v>
+        <v>1.015716034349239</v>
       </c>
       <c r="F5">
-        <v>0.3244681528130968</v>
+        <v>0.3174827446813211</v>
       </c>
       <c r="G5">
-        <v>0.2346172720939705</v>
+        <v>0.210432467057295</v>
       </c>
       <c r="H5">
-        <v>0.004399750024439153</v>
+        <v>0.0043500567022976</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2307265564175793</v>
+        <v>0.2645313907316122</v>
       </c>
       <c r="K5">
-        <v>0.188708284107495</v>
+        <v>0.180955735810743</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1281542079856486</v>
       </c>
       <c r="M5">
-        <v>0.7982293122827713</v>
+        <v>0.02803546896938425</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7979097849953121</v>
       </c>
       <c r="P5">
-        <v>0.6572174490173772</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.9293384340059703</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.65757105187528</v>
+      </c>
+      <c r="S5">
+        <v>0.9081572078423505</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7097143479367958</v>
+        <v>0.69504057992566</v>
       </c>
       <c r="C6">
-        <v>0.129530852040503</v>
+        <v>0.1356892473528291</v>
       </c>
       <c r="D6">
-        <v>0.0553633135749152</v>
+        <v>0.05664095003947267</v>
       </c>
       <c r="E6">
-        <v>1.009283475980951</v>
+        <v>1.008716388060179</v>
       </c>
       <c r="F6">
-        <v>0.3235668040860062</v>
+        <v>0.3166705867323572</v>
       </c>
       <c r="G6">
-        <v>0.2340663228185491</v>
+        <v>0.2099734821218462</v>
       </c>
       <c r="H6">
-        <v>0.004315290989119647</v>
+        <v>0.004268193996824543</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2306459285722369</v>
+        <v>0.2644074705913226</v>
       </c>
       <c r="K6">
-        <v>0.1887748413689216</v>
+        <v>0.1810613309801212</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1283739135803579</v>
       </c>
       <c r="M6">
-        <v>0.792814859753463</v>
+        <v>0.02800141205599349</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7925008642487228</v>
       </c>
       <c r="P6">
-        <v>0.6581857931099329</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.9279895998556924</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.6583919829822271</v>
+      </c>
+      <c r="S6">
+        <v>0.907046260820394</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7441805380388757</v>
+        <v>0.7269373658278937</v>
       </c>
       <c r="C7">
-        <v>0.1348157758135216</v>
+        <v>0.1420539932453977</v>
       </c>
       <c r="D7">
-        <v>0.05777985669032404</v>
+        <v>0.05933533748455488</v>
       </c>
       <c r="E7">
-        <v>1.058060028914625</v>
+        <v>1.057269448110844</v>
       </c>
       <c r="F7">
-        <v>0.3298650292919163</v>
+        <v>0.3217492012607579</v>
       </c>
       <c r="G7">
-        <v>0.2379252128492055</v>
+        <v>0.2156030486502729</v>
       </c>
       <c r="H7">
-        <v>0.004914339504577092</v>
+        <v>0.004845649851629275</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2312292374297442</v>
+        <v>0.2618152552587532</v>
       </c>
       <c r="K7">
-        <v>0.1883402480017331</v>
+        <v>0.1801070327444272</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1267344872427536</v>
       </c>
       <c r="M7">
-        <v>0.8303831820168739</v>
+        <v>0.02822670907571467</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.8293237656546353</v>
       </c>
       <c r="P7">
-        <v>0.6515160301883363</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.9374744693722761</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.6529127990898189</v>
+      </c>
+      <c r="S7">
+        <v>0.9130368752328195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8960290194412721</v>
+        <v>0.8678210719036201</v>
       </c>
       <c r="C8">
-        <v>0.1580989202217182</v>
+        <v>0.1708440647134779</v>
       </c>
       <c r="D8">
-        <v>0.06839803760995977</v>
+        <v>0.07098690019851972</v>
       </c>
       <c r="E8">
-        <v>1.273462168057023</v>
+        <v>1.271695837985845</v>
       </c>
       <c r="F8">
-        <v>0.358741177766305</v>
+        <v>0.3462768327278738</v>
       </c>
       <c r="G8">
-        <v>0.2558539446250236</v>
+        <v>0.2363320409713623</v>
       </c>
       <c r="H8">
-        <v>0.007896024462288431</v>
+        <v>0.007716635369493852</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2344071715361693</v>
+        <v>0.2581592959733356</v>
       </c>
       <c r="K8">
-        <v>0.1871224735108932</v>
+        <v>0.1769393691922119</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1202386827578437</v>
       </c>
       <c r="M8">
-        <v>0.9958575771491951</v>
+        <v>0.03039561032185389</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.9929184449580077</v>
       </c>
       <c r="P8">
-        <v>0.6233868252430383</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.9824868574358874</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.6297574832473742</v>
+      </c>
+      <c r="S8">
+        <v>0.9458017073795588</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.193295218457251</v>
+        <v>1.143479496308942</v>
       </c>
       <c r="C9">
-        <v>0.2036782229357215</v>
+        <v>0.2289158566642158</v>
       </c>
       <c r="D9">
-        <v>0.0890762228152937</v>
+        <v>0.09338887553476383</v>
       </c>
       <c r="E9">
-        <v>1.697469026794906</v>
+        <v>1.693630309671391</v>
       </c>
       <c r="F9">
-        <v>0.4197391117037341</v>
+        <v>0.4000963414121514</v>
       </c>
       <c r="G9">
-        <v>0.2946696416534778</v>
+        <v>0.2716117272356655</v>
       </c>
       <c r="H9">
-        <v>0.01517115689011062</v>
+        <v>0.01469972305285605</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2429955684320717</v>
+        <v>0.264370654359027</v>
       </c>
       <c r="K9">
-        <v>0.1874748006733817</v>
+        <v>0.1736680719681054</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1094630445751701</v>
       </c>
       <c r="M9">
-        <v>1.319652097746797</v>
+        <v>0.03892239528232366</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.315365355409227</v>
       </c>
       <c r="P9">
-        <v>0.5731714375359189</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.083389321480439</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.5886620017316808</v>
+      </c>
+      <c r="S9">
+        <v>1.026752265809648</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.407831113289689</v>
+        <v>1.339785342514887</v>
       </c>
       <c r="C10">
-        <v>0.2351901012142008</v>
+        <v>0.2678091940718019</v>
       </c>
       <c r="D10">
-        <v>0.1051802340017076</v>
+        <v>0.111440233991118</v>
       </c>
       <c r="E10">
-        <v>1.910070284561243</v>
+        <v>1.904472628424116</v>
       </c>
       <c r="F10">
-        <v>0.4624620885227202</v>
+        <v>0.4339570020416375</v>
       </c>
       <c r="G10">
-        <v>0.3207917100016715</v>
+        <v>0.3100301954480926</v>
       </c>
       <c r="H10">
-        <v>0.02100852491015903</v>
+        <v>0.02025027220314346</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2484921521832462</v>
+        <v>0.2491597130499628</v>
       </c>
       <c r="K10">
-        <v>0.1874698701739952</v>
+        <v>0.1695788263936571</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.101340989967925</v>
       </c>
       <c r="M10">
-        <v>1.551140776401439</v>
+        <v>0.04647813586335303</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.541382522608473</v>
       </c>
       <c r="P10">
-        <v>0.5417006127449326</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.150699004578883</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.5654313517542846</v>
+      </c>
+      <c r="S10">
+        <v>1.068687738208496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.470986767641364</v>
+        <v>1.397155976535629</v>
       </c>
       <c r="C11">
-        <v>0.2324630547025208</v>
+        <v>0.260955123602244</v>
       </c>
       <c r="D11">
-        <v>0.1213572961596441</v>
+        <v>0.1295728204057696</v>
       </c>
       <c r="E11">
-        <v>1.228650540294609</v>
+        <v>1.223640933364194</v>
       </c>
       <c r="F11">
-        <v>0.4375299207076964</v>
+        <v>0.4030972130754122</v>
       </c>
       <c r="G11">
-        <v>0.2904016814921349</v>
+        <v>0.3120780343307814</v>
       </c>
       <c r="H11">
-        <v>0.03663088906601786</v>
+        <v>0.03585029521630645</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2305021211386773</v>
+        <v>0.2009831903423347</v>
       </c>
       <c r="K11">
-        <v>0.1696372173037233</v>
+        <v>0.1511289078391833</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.09222271752286026</v>
       </c>
       <c r="M11">
-        <v>1.600711477144529</v>
+        <v>0.04286336489146692</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.581117483051713</v>
       </c>
       <c r="P11">
-        <v>0.5491090672039576</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.048723677260341</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.5817119479555188</v>
+      </c>
+      <c r="S11">
+        <v>0.9519850217660348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.47867584279274</v>
+        <v>1.405234874080008</v>
       </c>
       <c r="C12">
-        <v>0.2237874871943717</v>
+        <v>0.2484169408207322</v>
       </c>
       <c r="D12">
-        <v>0.1320959286732375</v>
+        <v>0.1411848506824072</v>
       </c>
       <c r="E12">
-        <v>0.7396608027985394</v>
+        <v>0.7355455364528751</v>
       </c>
       <c r="F12">
-        <v>0.4075847219568658</v>
+        <v>0.372442923107009</v>
       </c>
       <c r="G12">
-        <v>0.2601729502162655</v>
+        <v>0.2959250494768213</v>
       </c>
       <c r="H12">
-        <v>0.07286590329835008</v>
+        <v>0.07212575169993585</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2143295055181724</v>
+        <v>0.1780826975146255</v>
       </c>
       <c r="K12">
-        <v>0.1549691446937587</v>
+        <v>0.1377954498484648</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.08692176397544138</v>
       </c>
       <c r="M12">
-        <v>1.593449241968443</v>
+        <v>0.03847496542142892</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.569386423510764</v>
       </c>
       <c r="P12">
-        <v>0.5646002343826524</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.9508007799912122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.6024141285659468</v>
+      </c>
+      <c r="S12">
+        <v>0.8546389324773571</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.444112641559769</v>
+        <v>1.376797161509955</v>
       </c>
       <c r="C13">
-        <v>0.2101256694634372</v>
+        <v>0.2315334786675578</v>
       </c>
       <c r="D13">
-        <v>0.1391454286814167</v>
+        <v>0.1478870027949029</v>
       </c>
       <c r="E13">
-        <v>0.370294089823382</v>
+        <v>0.367210159555718</v>
       </c>
       <c r="F13">
-        <v>0.3720240814055629</v>
+        <v>0.3411610892585273</v>
       </c>
       <c r="G13">
-        <v>0.2283062169658621</v>
+        <v>0.2594625368660388</v>
       </c>
       <c r="H13">
-        <v>0.1263148919527879</v>
+        <v>0.1256631521431046</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.198565773925921</v>
+        <v>0.1718410759264621</v>
       </c>
       <c r="K13">
-        <v>0.1417889968284527</v>
+        <v>0.1277054769806032</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.08383433075893798</v>
       </c>
       <c r="M13">
-        <v>1.542180298982572</v>
+        <v>0.03356481278222212</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.51937259609744</v>
       </c>
       <c r="P13">
-        <v>0.5863760312179025</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.850189304553524</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0.6250512703675852</v>
+      </c>
+      <c r="S13">
+        <v>0.7685812711158633</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.400974295119227</v>
+        <v>1.34042267798398</v>
       </c>
       <c r="C14">
-        <v>0.1984443854045566</v>
+        <v>0.2178401434258461</v>
       </c>
       <c r="D14">
-        <v>0.1424001653070661</v>
+        <v>0.1503183606592273</v>
       </c>
       <c r="E14">
-        <v>0.1840946333810933</v>
+        <v>0.1817001955493041</v>
       </c>
       <c r="F14">
-        <v>0.3448618550084461</v>
+        <v>0.318914340107689</v>
       </c>
       <c r="G14">
-        <v>0.2055954833047835</v>
+        <v>0.2266533649298808</v>
       </c>
       <c r="H14">
-        <v>0.1741996938850576</v>
+        <v>0.1736235047873578</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1878324143258041</v>
+        <v>0.1732246273719618</v>
       </c>
       <c r="K14">
-        <v>0.1333608254104242</v>
+        <v>0.1220134706858609</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08251023679530078</v>
       </c>
       <c r="M14">
-        <v>1.486697427621891</v>
+        <v>0.0299983876347536</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.46718289926838</v>
       </c>
       <c r="P14">
-        <v>0.604464956049064</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.7795033581088262</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.6413954268548707</v>
+      </c>
+      <c r="S14">
+        <v>0.713063878232461</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.381551947644226</v>
+        <v>1.323758626533106</v>
       </c>
       <c r="C15">
-        <v>0.1945286879559376</v>
+        <v>0.2134831064380336</v>
       </c>
       <c r="D15">
-        <v>0.1423230270247444</v>
+        <v>0.1497923955987659</v>
       </c>
       <c r="E15">
-        <v>0.1477805577008411</v>
+        <v>0.1455734023340263</v>
       </c>
       <c r="F15">
-        <v>0.3370737930556089</v>
+        <v>0.3131550998327342</v>
       </c>
       <c r="G15">
-        <v>0.1996269209458816</v>
+        <v>0.2154870998320177</v>
       </c>
       <c r="H15">
-        <v>0.1862300400305941</v>
+        <v>0.1856835474474678</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1852935218167673</v>
+        <v>0.1760906799611242</v>
       </c>
       <c r="K15">
-        <v>0.1315786609571354</v>
+        <v>0.1211562145003349</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08253454893754775</v>
       </c>
       <c r="M15">
-        <v>1.463920261552175</v>
+        <v>0.02902501566663851</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.446239323314956</v>
       </c>
       <c r="P15">
-        <v>0.6097495781838589</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.7615009365059251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0.6452555572069301</v>
+      </c>
+      <c r="S15">
+        <v>0.7009208669024076</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.29702332960494</v>
+        <v>1.249057472475045</v>
       </c>
       <c r="C16">
-        <v>0.1842201882066519</v>
+        <v>0.2031726414959962</v>
       </c>
       <c r="D16">
-        <v>0.1336438307972259</v>
+        <v>0.1390751561319092</v>
       </c>
       <c r="E16">
-        <v>0.1450395186994093</v>
+        <v>0.1431667023546446</v>
       </c>
       <c r="F16">
-        <v>0.3261705708932396</v>
+        <v>0.3094649788847619</v>
       </c>
       <c r="G16">
-        <v>0.1951331828637919</v>
+        <v>0.1883633878281756</v>
       </c>
       <c r="H16">
-        <v>0.1717288449823542</v>
+        <v>0.1713006421923211</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1860929836892851</v>
+        <v>0.2003170432097576</v>
       </c>
       <c r="K16">
-        <v>0.1340741869302366</v>
+        <v>0.1260090712641375</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.08595434877637054</v>
       </c>
       <c r="M16">
-        <v>1.37612705846368</v>
+        <v>0.02783746841299184</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.36701072924302</v>
       </c>
       <c r="P16">
-        <v>0.6164510032777031</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.7534777586596562</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.6438618833233178</v>
+      </c>
+      <c r="S16">
+        <v>0.7120744678107656</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.255100951098427</v>
+        <v>1.210497208693539</v>
       </c>
       <c r="C17">
-        <v>0.1824194922735245</v>
+        <v>0.2020501110319088</v>
       </c>
       <c r="D17">
-        <v>0.1252879101586188</v>
+        <v>0.1298677233368153</v>
       </c>
       <c r="E17">
-        <v>0.2283687965731147</v>
+        <v>0.2264632588638875</v>
       </c>
       <c r="F17">
-        <v>0.3322341945027816</v>
+        <v>0.3178940129212222</v>
       </c>
       <c r="G17">
-        <v>0.2036703035445555</v>
+        <v>0.1871621774295207</v>
       </c>
       <c r="H17">
-        <v>0.1333030155096679</v>
+        <v>0.1329230660278</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1924282994019819</v>
+        <v>0.2174707271700527</v>
       </c>
       <c r="K17">
-        <v>0.140494798400562</v>
+        <v>0.1327151268333413</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.08951326099222889</v>
       </c>
       <c r="M17">
-        <v>1.33813659057472</v>
+        <v>0.02865028734349373</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.332737787444728</v>
       </c>
       <c r="P17">
-        <v>0.612288401030348</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.7847446830543845</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.6356080650760418</v>
+      </c>
+      <c r="S17">
+        <v>0.7489263988564971</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.244920638694737</v>
+        <v>1.199414674290438</v>
       </c>
       <c r="C18">
-        <v>0.187912154431686</v>
+        <v>0.2095240564614471</v>
       </c>
       <c r="D18">
-        <v>0.1164316595148733</v>
+        <v>0.1207584246516973</v>
       </c>
       <c r="E18">
-        <v>0.4581807026601936</v>
+        <v>0.4559108767878612</v>
       </c>
       <c r="F18">
-        <v>0.3537160028208604</v>
+        <v>0.339049293216064</v>
       </c>
       <c r="G18">
-        <v>0.2249101542971488</v>
+        <v>0.2029032569820401</v>
       </c>
       <c r="H18">
-        <v>0.08109172137676524</v>
+        <v>0.08070896603643973</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2043666584509296</v>
+        <v>0.2337316045419158</v>
       </c>
       <c r="K18">
-        <v>0.1512219355939521</v>
+        <v>0.1423614627126657</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.09383295880936338</v>
       </c>
       <c r="M18">
-        <v>1.338652413002421</v>
+        <v>0.03137338348706109</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.334909561038302</v>
       </c>
       <c r="P18">
-        <v>0.5993157580654298</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.8547321539565758</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.6204403803739282</v>
+      </c>
+      <c r="S18">
+        <v>0.8167408412198398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.261129598053941</v>
+        <v>1.211668206591384</v>
       </c>
       <c r="C19">
-        <v>0.1992513622442544</v>
+        <v>0.2241004024518958</v>
       </c>
       <c r="D19">
-        <v>0.1080318646027791</v>
+        <v>0.112451605525564</v>
       </c>
       <c r="E19">
-        <v>0.8863453566941928</v>
+        <v>0.8833577196617313</v>
       </c>
       <c r="F19">
-        <v>0.3866279875115666</v>
+        <v>0.3698656475469448</v>
       </c>
       <c r="G19">
-        <v>0.2559314260648122</v>
+        <v>0.2302903876698394</v>
       </c>
       <c r="H19">
-        <v>0.03810856867057311</v>
+        <v>0.03767101289958674</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2202779853177645</v>
+        <v>0.2500805126414392</v>
       </c>
       <c r="K19">
-        <v>0.1650862680275829</v>
+        <v>0.1541655124869976</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.09859350592333094</v>
       </c>
       <c r="M19">
-        <v>1.370523875157886</v>
+        <v>0.03565022593233458</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.367305988665322</v>
       </c>
       <c r="P19">
-        <v>0.5815987773187885</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.953832788094644</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.6015445692797812</v>
+      </c>
+      <c r="S19">
+        <v>0.9084134269495507</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.351330971837712</v>
+        <v>1.289481105386784</v>
       </c>
       <c r="C20">
-        <v>0.2268358981169314</v>
+        <v>0.2585097107078411</v>
       </c>
       <c r="D20">
-        <v>0.1009930120007709</v>
+        <v>0.1063348442159366</v>
       </c>
       <c r="E20">
-        <v>1.849952119245827</v>
+        <v>1.844954004289065</v>
       </c>
       <c r="F20">
-        <v>0.4508016715270173</v>
+        <v>0.4268071912130651</v>
       </c>
       <c r="G20">
-        <v>0.3135321549861629</v>
+        <v>0.2905525881773698</v>
       </c>
       <c r="H20">
-        <v>0.01935819860540411</v>
+        <v>0.01869647543028607</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2468310918070955</v>
+        <v>0.2642482243119986</v>
       </c>
       <c r="K20">
-        <v>0.1872436343556778</v>
+        <v>0.1712923852939667</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1036575543048777</v>
       </c>
       <c r="M20">
-        <v>1.49009796782164</v>
+        <v>0.04464019645445916</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.484428755251201</v>
       </c>
       <c r="P20">
-        <v>0.5497935068239492</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.131721696749821</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.5705081052624124</v>
+      </c>
+      <c r="S20">
+        <v>1.062984654094748</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.522174962488776</v>
+        <v>1.437880932509529</v>
       </c>
       <c r="C21">
-        <v>0.2541084330247827</v>
+        <v>0.286878790679765</v>
       </c>
       <c r="D21">
-        <v>0.1118245748628226</v>
+        <v>0.1208555764149111</v>
       </c>
       <c r="E21">
-        <v>2.170021237927628</v>
+        <v>2.162658108392293</v>
       </c>
       <c r="F21">
-        <v>0.4928061845737943</v>
+        <v>0.4498040719485488</v>
       </c>
       <c r="G21">
-        <v>0.3423366996634201</v>
+        <v>0.3789801469817178</v>
       </c>
       <c r="H21">
-        <v>0.02516000459563594</v>
+        <v>0.02413543557987219</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2553817290099971</v>
+        <v>0.203905487648143</v>
       </c>
       <c r="K21">
-        <v>0.191239850969545</v>
+        <v>0.1670394239446402</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.09727975067745476</v>
       </c>
       <c r="M21">
-        <v>1.677729940778875</v>
+        <v>0.05053480544965083</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.653726851937904</v>
       </c>
       <c r="P21">
-        <v>0.5234661096994344</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.211017944034268</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.5548301228958863</v>
+      </c>
+      <c r="S21">
+        <v>1.085565778247116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.631977245707986</v>
+        <v>1.532488655042698</v>
       </c>
       <c r="C22">
-        <v>0.2709472557238826</v>
+        <v>0.3036932168348869</v>
       </c>
       <c r="D22">
-        <v>0.1193944553279778</v>
+        <v>0.1310788728683434</v>
       </c>
       <c r="E22">
-        <v>2.328575373035093</v>
+        <v>2.319665881217588</v>
       </c>
       <c r="F22">
-        <v>0.5183267698045171</v>
+        <v>0.4619536408231397</v>
       </c>
       <c r="G22">
-        <v>0.3592177273134496</v>
+        <v>0.4433481010174773</v>
       </c>
       <c r="H22">
-        <v>0.02891003585962348</v>
+        <v>0.02763154069595775</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2600870316161945</v>
+        <v>0.1699765937615183</v>
       </c>
       <c r="K22">
-        <v>0.1931706254128045</v>
+        <v>0.163325627825575</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.09299540180119159</v>
       </c>
       <c r="M22">
-        <v>1.797255590550634</v>
+        <v>0.05421243561833577</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.759825484731437</v>
       </c>
       <c r="P22">
-        <v>0.5080174945240508</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.256861382896176</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.5472198636449335</v>
+      </c>
+      <c r="S22">
+        <v>1.091738739994526</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.573357555501701</v>
+        <v>1.482988600888177</v>
       </c>
       <c r="C23">
-        <v>0.2619574418420001</v>
+        <v>0.2954925514345632</v>
       </c>
       <c r="D23">
-        <v>0.1153546019514096</v>
+        <v>0.1253102253111962</v>
       </c>
       <c r="E23">
-        <v>2.243880511798139</v>
+        <v>2.235881525914692</v>
       </c>
       <c r="F23">
-        <v>0.5046362096038095</v>
+        <v>0.4570084411923574</v>
       </c>
       <c r="G23">
-        <v>0.3501484867547475</v>
+        <v>0.400921532392104</v>
       </c>
       <c r="H23">
-        <v>0.02688306196714096</v>
+        <v>0.0257533292900165</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.257541929945063</v>
+        <v>0.1927802081675267</v>
       </c>
       <c r="K23">
-        <v>0.1921005435244112</v>
+        <v>0.1658838301811372</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.09544796651779741</v>
       </c>
       <c r="M23">
-        <v>1.733446229853513</v>
+        <v>0.05248508525587425</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.705176307802986</v>
       </c>
       <c r="P23">
-        <v>0.5161986552374529</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.232197462261524</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.5505008403063911</v>
+      </c>
+      <c r="S23">
+        <v>1.093078877864684</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.351653456286556</v>
+        <v>1.289520629377137</v>
       </c>
       <c r="C24">
-        <v>0.2279599515670157</v>
+        <v>0.2599965554849888</v>
       </c>
       <c r="D24">
-        <v>0.1000446206328292</v>
+        <v>0.1053650691540327</v>
       </c>
       <c r="E24">
-        <v>1.924562616816942</v>
+        <v>1.919450945285618</v>
       </c>
       <c r="F24">
-        <v>0.4542601125628849</v>
+        <v>0.43012793518308</v>
       </c>
       <c r="G24">
-        <v>0.3170566877816867</v>
+        <v>0.2933414460356261</v>
       </c>
       <c r="H24">
-        <v>0.01974163851315702</v>
+        <v>0.01906995964023062</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2486225269026789</v>
+        <v>0.2665103765562407</v>
       </c>
       <c r="K24">
-        <v>0.1888905676873662</v>
+        <v>0.1727331945630546</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1042752875141701</v>
       </c>
       <c r="M24">
-        <v>1.492085235490634</v>
+        <v>0.04511613840211481</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.486571234126785</v>
       </c>
       <c r="P24">
-        <v>0.5485581108040485</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.142946122129757</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.5689920325756326</v>
+      </c>
+      <c r="S24">
+        <v>1.07362060412521</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.112891680606538</v>
+        <v>1.069595006844821</v>
       </c>
       <c r="C25">
-        <v>0.1913499873823667</v>
+        <v>0.2135350059259338</v>
       </c>
       <c r="D25">
-        <v>0.08349550858036991</v>
+        <v>0.0871780163346898</v>
       </c>
       <c r="E25">
-        <v>1.582487328682063</v>
+        <v>1.579292897907308</v>
       </c>
       <c r="F25">
-        <v>0.4027216983163555</v>
+        <v>0.3859589826935661</v>
       </c>
       <c r="G25">
-        <v>0.2837353293901543</v>
+        <v>0.2581442595797796</v>
       </c>
       <c r="H25">
-        <v>0.01302923336431205</v>
+        <v>0.0126528588092828</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2404013900421802</v>
+        <v>0.2672943911143975</v>
       </c>
       <c r="K25">
-        <v>0.1870639192409591</v>
+        <v>0.1746491575182851</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1123594269250408</v>
       </c>
       <c r="M25">
-        <v>1.232088745181557</v>
+        <v>0.03628403522095169</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.229227373617022</v>
       </c>
       <c r="P25">
-        <v>0.5862008210546392</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.054612018605098</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.5989322065704634</v>
+      </c>
+      <c r="S25">
+        <v>1.006238853571986</v>
       </c>
     </row>
   </sheetData>
